--- a/Students_template.xlsx
+++ b/Students_template.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Akhil\pyProjects\school-app\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B2E3C19F-2299-45A8-9ADD-30D5BC41E342}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7DEEE8C5-01AE-4A6C-B468-FF81397934B4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" tabRatio="733" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" tabRatio="733" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Students" sheetId="10" r:id="rId1"/>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9" uniqueCount="9">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14" uniqueCount="14">
   <si>
     <t>Name</t>
   </si>
@@ -64,6 +64,21 @@
   </si>
   <si>
     <t>New Sections</t>
+  </si>
+  <si>
+    <t>6A</t>
+  </si>
+  <si>
+    <t>6B</t>
+  </si>
+  <si>
+    <t>6C</t>
+  </si>
+  <si>
+    <t>6D</t>
+  </si>
+  <si>
+    <t>6E</t>
   </si>
 </sst>
 </file>
@@ -348,8 +363,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{22F03DBC-44CC-45CD-A608-D39A8E9BB380}">
   <dimension ref="A1:H18"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="J36" sqref="J36"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="I34" sqref="I34"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -567,10 +582,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D580E996-E968-4A14-845F-ACEE32BC376F}">
-  <dimension ref="A1"/>
+  <dimension ref="A1:A6"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J20" sqref="J20"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="K14" sqref="K14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -583,6 +598,31 @@
         <v>8</v>
       </c>
     </row>
+    <row r="2" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A2" s="2" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="3" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A3" s="2" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="4" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A4" s="2" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="5" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A5" s="2" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="6" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A6" s="2" t="s">
+        <v>13</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
